--- a/data/Trivia Night 02.xlsx
+++ b/data/Trivia Night 02.xlsx
@@ -1444,7 +1444,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3430,8 +3430,8 @@
   <sheetPr/>
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="60" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="14.5"/>
@@ -4411,13 +4411,10 @@
       <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
-        <f t="shared" si="12"/>
-        <v>2024</v>
-      </c>
+      <c r="B16"/>
       <c r="D16" s="2">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="14"/>
@@ -5809,7 +5806,7 @@
     <row r="39" spans="4:21">
       <c r="D39" s="3">
         <f t="shared" ref="D39:H39" si="25">SUM(D2:D36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="25"/>
